--- a/output/google_maps_data_Wisata_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Wisata_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>0882-3370-1338</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.762814</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.762814</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.116163</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ekowisata+Sungai+Mudal/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aee4a6fe974b7:0xc8f1e183fc8e2531!8m2!3d-7.7628136!4d110.1161626!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7wn6mry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ekowisata+Sungai+Mudal/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aee4a6fe974b7:0xc8f1e183fc8e2531!8m2!3d-7.7628136!4d110.1161626!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7wn6mry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>0823-2296-6355</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.799943</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.799943</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.123771</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bukit+Wisata+Pulepayung/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aef0ce7442ce9:0x9832e17670a1167e!8m2!3d-7.7999428!4d110.1237712!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11dfknb5kt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bukit+Wisata+Pulepayung/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aef0ce7442ce9:0x9832e17670a1167e!8m2!3d-7.7999428!4d110.1237712!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11dfknb5kt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -593,25 +586,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.80032</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.80032</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.128122</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Canting+Mas+Puncak+Dipowono/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff802bfc345:0x577753a527aa9ef8!8m2!3d-7.80032!4d110.128122!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F1tgqfvjy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Canting+Mas+Puncak+Dipowono/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff802bfc345:0x577753a527aa9ef8!8m2!3d-7.80032!4d110.128122!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F1tgqfvjy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -638,25 +630,24 @@
           <t>0811-2650-250</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.807422</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.807422</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.129268</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisata+Alam+Kalibiru/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff7861e0b91:0x5604e4ced3f4227e!8m2!3d-7.8074219!4d110.1292682!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7jz25fr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisata+Alam+Kalibiru/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aeff7861e0b91:0x5604e4ced3f4227e!8m2!3d-7.8074219!4d110.1292682!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b7jz25fr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -679,25 +670,24 @@
           <t>0853-2888-4338</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>-7.777805</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.777805</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.163457</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Embung+Kleco/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af3600ec7617f:0xc6e073199b9579a1!8m2!3d-7.7778054!4d110.1634566!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11b708k5lt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,25 +706,24 @@
           <t>0852-9212-2131</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>-7.766425</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.766425</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.117562</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Air+Terjun+Kembang+Soka/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af1e00cc25677:0xfc4eccf8f2a9af7a!8m2!3d-7.7664251!4d110.1175615!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11cn7qyq53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Air+Terjun+Kembang+Soka/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af1e00cc25677:0xfc4eccf8f2a9af7a!8m2!3d-7.7664251!4d110.1175615!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11cn7qyq53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -757,25 +746,24 @@
           <t>0851-5627-6948</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.658313</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.658313</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.148813</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puncak+Widosari/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af2a39a0f77ef:0xf43f0e20f44edb20!8m2!3d-7.6583125!4d110.1488125!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b778f86j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puncak+Widosari/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af2a39a0f77ef:0xf43f0e20f44edb20!8m2!3d-7.6583125!4d110.1488125!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11b778f86j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -798,25 +786,24 @@
           <t>0812-2920-9313</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.769987</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.769987</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.121071</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KEDUNG+PEDUT/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aefcb98e324b9:0x417b7b093fdf367f!8m2!3d-7.7699875!4d110.1210707!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11clgcfjzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KEDUNG+PEDUT/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aefcb98e324b9:0x417b7b093fdf367f!8m2!3d-7.7699875!4d110.1210707!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9u4AEA!16s%2Fg%2F11clgcfjzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>42 menit lalu</t>
         </is>
@@ -835,25 +822,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.858781</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.858781</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.159277</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Taman+Kota+Wates/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb3cc533ced3:0x229598c21cc2b05!8m2!3d-7.8587807!4d110.1592767!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxZDFwWU1EbEJSUkFC4AEA-gEECAAQRg!16s%2Fg%2F11f10m1_ln?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -868,25 +854,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>-7.740285</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.740285</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.145584</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Curug+Setawing/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af1d63f8bb1b3:0x7f7a2b5cc9ed6c32!8m2!3d-7.7402852!4d110.1455835!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DWDNOWFYxQm5FQUXgAQD6AQUI_gEQHQ!16s%2Fg%2F11s48r83p_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -905,25 +890,24 @@
           <t>0857-4300-7723</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.850688</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.850688</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.231333</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Desa+Wisata+Salamrejo/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afbd71f44ff5b:0x14adffcfcb22d6f!8m2!3d-7.8506884!4d110.2313331!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hckf7kpy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Desa+Wisata+Salamrejo/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afbd71f44ff5b:0x14adffcfcb22d6f!8m2!3d-7.8506884!4d110.2313331!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hckf7kpy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -942,25 +926,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.747245</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.747245</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.205995</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pronosutan+View/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af11401b1eb09:0x3009d7efec6d3ad3!8m2!3d-7.7472446!4d110.2059948!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgEQYm90YW5pY2FsX2dhcmRlbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2RITXphbVJuRUFF4AEA-gEECAAQQg!16s%2Fg%2F11g9qgrx0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pronosutan+View/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7af11401b1eb09:0x3009d7efec6d3ad3!8m2!3d-7.7472446!4d110.2059948!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgEQYm90YW5pY2FsX2dhcmRlbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2RITXphbVJuRUFF4AEA-gEECAAQQg!16s%2Fg%2F11g9qgrx0q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -983,25 +966,24 @@
           <t>0852-3348-6269</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>-7.772227</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.772227</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.121244</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bukit+Sebantung+(Kedung+Pedut+Jilid+II)/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7aefd7b0d4a08d:0xb87392729bb31329!8m2!3d-7.772227!4d110.121244!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IYVVwdVoxbEJFQUXgAQD6AQQIexA8!16s%2Fg%2F11j1dldp68?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1017,22 +999,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.824177</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.824177</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.110479</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Desa+Wisata+Hargowilis/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7ae56173be32c3:0x72c3e0d4658f6663!8m2!3d-7.8241769!4d110.1104789!15sChJXaXNhdGEgS3Vsb24gUHJvZ2-SARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11tcl8jzgz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1047,25 +1028,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.865523</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.865523</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.203555</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jangkang+View+Sidowayah/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb55349ae29f:0x10745b0ab18230a4!8m2!3d-7.8655231!4d110.2035546!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgELc2NlbmljX3Nwb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlPR1JJY1ZSUkVBReABAPoBBAgAECU!16s%2Fg%2F11h1ml0yc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1080,25 +1060,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.807055</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.807055</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.177803</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Curug+Mbendo/@-7.7628136,109.8277715,11z/data=!4m11!1m3!2m2!1sWisata+Kulon+Progo!6e1!3m6!1s0x2e7afb111e85e107:0xb3e589e463d560ef!8m2!3d-7.8070545!4d110.1778028!15sChJXaXNhdGEgS3Vsb24gUHJvZ29aFCISd2lzYXRhIGt1bG9uIHByb2dvkgESdG91cmlzdF9hdHRyYWN0aW9umgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0TjFCNlNVTm5FQUXgAQD6AQQIABAP!16s%2Fg%2F11fjx7k6cy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
